--- a/唐巢资料/工程采购明细表样本20150324.xlsx
+++ b/唐巢资料/工程采购明细表样本20150324.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="0" windowWidth="8235" windowHeight="13545"/>
+    <workbookView xWindow="12405" yWindow="0" windowWidth="8235" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>茶几</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目名称:                                                                                                                        日期：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,12 +158,20 @@
     <t>三房一厅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,12 +624,39 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -640,33 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -703,7 +707,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -735,7 +739,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -771,7 +775,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -805,7 +809,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -837,7 +841,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -869,7 +873,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -901,7 +905,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -933,7 +937,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -965,7 +969,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -997,7 +1001,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1029,7 +1033,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1067,7 +1071,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1101,7 +1105,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1137,7 +1141,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1169,7 +1173,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1205,7 +1209,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1239,7 +1243,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1277,7 +1281,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1309,7 +1313,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1347,7 +1351,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1381,7 +1385,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1419,7 +1423,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1451,7 +1455,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1489,7 +1493,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1523,7 +1527,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1561,7 +1565,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1593,7 +1597,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1631,7 +1635,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1663,7 +1667,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1701,7 +1705,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1733,7 +1737,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1763,7 +1767,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1799,7 +1803,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1831,7 +1835,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1867,7 +1871,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1899,7 +1903,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1929,7 +1933,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1965,7 +1969,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2003,7 +2007,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -2041,7 +2045,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2073,7 +2077,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -2105,7 +2109,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2137,7 +2141,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2187,7 +2191,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -2201,6 +2205,79 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2239,14 +2316,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2313,6 +2390,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2347,6 +2425,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2522,14 +2601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -2547,37 +2626,37 @@
     <col min="26" max="26" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
     </row>
-    <row r="2" spans="1:26" ht="9" customHeight="1">
+    <row r="2" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -2605,104 +2684,104 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="46" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="s">
+      <c r="J4" s="55"/>
+      <c r="K4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="46" t="s">
+      <c r="O4" s="55"/>
+      <c r="P4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="46" t="s">
+      <c r="R4" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46" t="s">
+      <c r="V4" s="54"/>
+      <c r="W4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="46" t="s">
+      <c r="X4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Y4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="52"/>
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="55"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
@@ -2715,14 +2794,14 @@
       <c r="G5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="18" t="s">
         <v>22</v>
       </c>
@@ -2735,9 +2814,9 @@
       <c r="O5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="19" t="s">
         <v>16</v>
       </c>
@@ -2750,20 +2829,20 @@
       <c r="V5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
     </row>
-    <row r="6" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="6" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>30</v>
+      <c r="B6" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17">
@@ -2771,14 +2850,14 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="54">
+      <c r="H6" s="46">
         <v>1</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="53">
+      <c r="K6" s="45">
         <v>1</v>
       </c>
       <c r="L6" s="11">
@@ -2787,11 +2866,11 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55">
-        <v>1</v>
-      </c>
-      <c r="R6" s="53">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="47">
+        <v>1</v>
+      </c>
+      <c r="R6" s="45">
         <v>1</v>
       </c>
       <c r="S6" s="11">
@@ -2804,56 +2883,56 @@
       <c r="V6" s="11">
         <v>1</v>
       </c>
-      <c r="W6" s="53">
-        <v>1</v>
-      </c>
-      <c r="X6" s="53">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="53">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="56"/>
+      <c r="W6" s="45">
+        <v>1</v>
+      </c>
+      <c r="X6" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="48"/>
     </row>
-    <row r="7" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="7" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
         <v>2</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="58">
+      <c r="E7" s="50">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="57">
+      <c r="H7" s="49">
         <v>2</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="49">
         <v>2</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="49">
         <v>1</v>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="59">
+      <c r="N7" s="51">
         <v>1</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="49"/>
       <c r="Q7" s="6">
         <v>1</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="45">
         <v>1</v>
       </c>
       <c r="S7" s="11"/>
@@ -2866,36 +2945,36 @@
       <c r="V7" s="11">
         <v>2</v>
       </c>
-      <c r="W7" s="53">
-        <v>1</v>
-      </c>
-      <c r="X7" s="53">
+      <c r="W7" s="45">
+        <v>1</v>
+      </c>
+      <c r="X7" s="45">
         <v>1</v>
       </c>
       <c r="Y7" s="6">
         <v>1</v>
       </c>
-      <c r="Z7" s="60"/>
+      <c r="Z7" s="52"/>
     </row>
-    <row r="8" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="8" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="58">
+      <c r="E8" s="50">
         <v>2</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="50">
         <v>1</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="57">
+      <c r="H8" s="49">
         <v>3</v>
       </c>
       <c r="I8" s="6">
@@ -2913,45 +2992,45 @@
         <v>1</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="57">
+      <c r="P8" s="49">
         <v>1</v>
       </c>
       <c r="Q8" s="6"/>
-      <c r="R8" s="53"/>
+      <c r="R8" s="45"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="53">
-        <v>1</v>
-      </c>
-      <c r="X8" s="53">
+      <c r="W8" s="45">
+        <v>1</v>
+      </c>
+      <c r="X8" s="45">
         <v>1</v>
       </c>
       <c r="Y8" s="6">
         <v>1</v>
       </c>
-      <c r="Z8" s="60"/>
+      <c r="Z8" s="52"/>
     </row>
-    <row r="9" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="9" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="58">
+      <c r="E9" s="50">
         <v>2</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="50">
         <v>1</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="57">
+      <c r="H9" s="49">
         <v>3</v>
       </c>
       <c r="I9" s="6">
@@ -2969,11 +3048,11 @@
         <v>1</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="57">
+      <c r="P9" s="49">
         <v>1</v>
       </c>
       <c r="Q9" s="6"/>
-      <c r="R9" s="53"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="11">
         <v>1</v>
       </c>
@@ -2986,36 +3065,36 @@
       <c r="V9" s="11">
         <v>3</v>
       </c>
-      <c r="W9" s="53">
-        <v>1</v>
-      </c>
-      <c r="X9" s="53">
+      <c r="W9" s="45">
+        <v>1</v>
+      </c>
+      <c r="X9" s="45">
         <v>1</v>
       </c>
       <c r="Y9" s="6">
         <v>1</v>
       </c>
-      <c r="Z9" s="60"/>
+      <c r="Z9" s="52"/>
     </row>
-    <row r="10" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="10" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="58">
+      <c r="E10" s="50">
         <v>3</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="50">
         <v>1</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="57">
+      <c r="H10" s="49">
         <v>3</v>
       </c>
       <c r="I10" s="6">
@@ -3033,11 +3112,11 @@
         <v>1</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="57">
+      <c r="P10" s="49">
         <v>1</v>
       </c>
       <c r="Q10" s="6"/>
-      <c r="R10" s="53"/>
+      <c r="R10" s="45"/>
       <c r="S10" s="11">
         <v>1</v>
       </c>
@@ -3050,18 +3129,18 @@
       <c r="V10" s="11">
         <v>3</v>
       </c>
-      <c r="W10" s="53">
-        <v>1</v>
-      </c>
-      <c r="X10" s="53">
+      <c r="W10" s="45">
+        <v>1</v>
+      </c>
+      <c r="X10" s="45">
         <v>1</v>
       </c>
       <c r="Y10" s="6">
         <v>1</v>
       </c>
-      <c r="Z10" s="60"/>
+      <c r="Z10" s="52"/>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
         <v>6</v>
       </c>
@@ -3091,11 +3170,13 @@
       <c r="Y11" s="34"/>
       <c r="Z11" s="37"/>
     </row>
-    <row r="12" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="12" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
         <v>7</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="C12" s="34"/>
       <c r="D12" s="17"/>
       <c r="E12" s="33"/>
@@ -3121,7 +3202,7 @@
       <c r="Y12" s="34"/>
       <c r="Z12" s="37"/>
     </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="13" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
         <v>8</v>
       </c>
@@ -3151,7 +3232,7 @@
       <c r="Y13" s="34"/>
       <c r="Z13" s="37"/>
     </row>
-    <row r="14" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="14" spans="1:26" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27">
         <v>9</v>
       </c>
@@ -3181,7 +3262,7 @@
       <c r="Y14" s="34"/>
       <c r="Z14" s="37"/>
     </row>
-    <row r="15" spans="1:26" ht="23.25" customHeight="1">
+    <row r="15" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27">
         <v>10</v>
       </c>
@@ -3211,7 +3292,7 @@
       <c r="Y15" s="34"/>
       <c r="Z15" s="37"/>
     </row>
-    <row r="16" spans="1:26" ht="23.25" customHeight="1">
+    <row r="16" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>11</v>
       </c>
@@ -3241,7 +3322,7 @@
       <c r="Y16" s="34"/>
       <c r="Z16" s="37"/>
     </row>
-    <row r="17" spans="1:26" ht="23.25" customHeight="1">
+    <row r="17" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27">
         <v>12</v>
       </c>
@@ -3271,7 +3352,7 @@
       <c r="Y17" s="34"/>
       <c r="Z17" s="37"/>
     </row>
-    <row r="18" spans="1:26" ht="23.25" customHeight="1">
+    <row r="18" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27">
         <v>13</v>
       </c>
@@ -3301,7 +3382,7 @@
       <c r="Y18" s="34"/>
       <c r="Z18" s="37"/>
     </row>
-    <row r="19" spans="1:26" ht="23.25" customHeight="1">
+    <row r="19" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>14</v>
       </c>
@@ -3331,7 +3412,7 @@
       <c r="Y19" s="34"/>
       <c r="Z19" s="37"/>
     </row>
-    <row r="20" spans="1:26" ht="23.25" customHeight="1">
+    <row r="20" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
         <v>15</v>
       </c>
@@ -3361,7 +3442,7 @@
       <c r="Y20" s="34"/>
       <c r="Z20" s="37"/>
     </row>
-    <row r="21" spans="1:26" ht="23.25" customHeight="1">
+    <row r="21" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
         <v>16</v>
       </c>
@@ -3391,7 +3472,7 @@
       <c r="Y21" s="34"/>
       <c r="Z21" s="37"/>
     </row>
-    <row r="22" spans="1:26" ht="23.25" customHeight="1">
+    <row r="22" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
         <v>17</v>
       </c>
@@ -3421,7 +3502,7 @@
       <c r="Y22" s="34"/>
       <c r="Z22" s="37"/>
     </row>
-    <row r="23" spans="1:26" ht="23.25" customHeight="1">
+    <row r="23" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
         <v>18</v>
       </c>
@@ -3451,7 +3532,7 @@
       <c r="Y23" s="34"/>
       <c r="Z23" s="37"/>
     </row>
-    <row r="24" spans="1:26" ht="23.25" customHeight="1">
+    <row r="24" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
         <v>19</v>
       </c>
@@ -3481,7 +3562,7 @@
       <c r="Y24" s="34"/>
       <c r="Z24" s="37"/>
     </row>
-    <row r="25" spans="1:26" ht="23.25" customHeight="1">
+    <row r="25" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38">
         <v>20</v>
       </c>
@@ -3513,12 +3594,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="A3:Z3"/>
     <mergeCell ref="A1:Z1"/>
@@ -3533,6 +3608,12 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3554,12 +3635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3573,12 +3654,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
